--- a/dados/Repasses.xlsx
+++ b/dados/Repasses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\workspace\python\certifast\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\workspace\python\certifast-relatorios\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,13 +123,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +449,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,18 +479,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>